--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/VolPublisher_v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/VolPublisher_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CFE07A-D957-476F-B2E6-48A561CF8989}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95F7559-8F70-418D-B574-4A6F5805FCEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="90" windowWidth="18075" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapData-3M" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,15 @@
     <sheet name="CapData-6M" sheetId="7" r:id="rId3"/>
     <sheet name="CapData-1Y" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2097,7 +2105,7 @@
       </c>
       <c r="L9" s="7">
         <f ca="1">NOW()</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N9" t="str">
         <f ca="1"/>
@@ -2138,7 +2146,7 @@
       </c>
       <c r="L10" s="9">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N10" t="e">
         <f ca="1"/>
@@ -2658,7 +2666,7 @@
       </c>
       <c r="L23" s="12">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N23" t="e">
         <f ca="1"/>
@@ -4845,7 +4853,7 @@
       </c>
       <c r="L9" s="7">
         <f ca="1">NOW()</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N9" t="str">
         <f ca="1"/>
@@ -4886,7 +4894,7 @@
       </c>
       <c r="L10" s="9">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N10" t="e">
         <f ca="1"/>
@@ -5413,7 +5421,7 @@
       </c>
       <c r="L23" s="12">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N23" t="e">
         <f ca="1"/>
@@ -7733,7 +7741,7 @@
       </c>
       <c r="L9" s="7">
         <f ca="1">NOW()</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N9" t="str">
         <f ca="1"/>
@@ -7774,7 +7782,7 @@
       </c>
       <c r="L10" s="9">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N10" t="str">
         <f ca="1"/>
@@ -8280,7 +8288,7 @@
       </c>
       <c r="L23" s="12">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N23" t="str">
         <f ca="1"/>
@@ -10150,7 +10158,7 @@
       </c>
       <c r="L9" s="7">
         <f ca="1">NOW()</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N9" t="str">
         <f ca="1"/>
@@ -10191,7 +10199,7 @@
       </c>
       <c r="L10" s="9">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N10" t="str">
         <f ca="1"/>
@@ -10697,7 +10705,7 @@
       </c>
       <c r="L23" s="12">
         <f ca="1">L9</f>
-        <v>43189.470537037036</v>
+        <v>43648.625487962963</v>
       </c>
       <c r="N23" t="str">
         <f ca="1"/>
